--- a/sim/tile/accelerator_models/c-model/area_power.xlsx
+++ b/sim/tile/accelerator_models/c-model/area_power.xlsx
@@ -8,29 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1B5F33-CA35-4344-BBB3-A88556229201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5405073-C264-40CD-8AB2-869964B541D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{B4A96ED6-F37D-4104-88B0-F12BE89ED4ED}"/>
+    <workbookView xWindow="-20610" yWindow="1335" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>DECADES accelerators: area and power estimates</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>area (um^2)</t>
+  </si>
+  <si>
+    <t>feature size (nm)</t>
+  </si>
+  <si>
+    <t>peak 32</t>
+  </si>
   <si>
     <t>accelerator</t>
   </si>
@@ -38,28 +53,31 @@
     <t>gemm (matmul)</t>
   </si>
   <si>
-    <t>feature size (nm)</t>
-  </si>
-  <si>
-    <t>metric</t>
-  </si>
-  <si>
     <t>IS</t>
   </si>
   <si>
-    <t>power (mW)</t>
-  </si>
-  <si>
-    <t>area (um^2)</t>
-  </si>
-  <si>
-    <t>DECADES accelerators: area and power estimates</t>
-  </si>
-  <si>
-    <t>nvdla</t>
-  </si>
-  <si>
     <t>sdp</t>
+  </si>
+  <si>
+    <t>power (mW) @ 1V</t>
+  </si>
+  <si>
+    <t>power (mW) @ 0.75V</t>
+  </si>
+  <si>
+    <t>nvdla (64MACs)</t>
+  </si>
+  <si>
+    <t>Reference for tech projection</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>mW</t>
+  </si>
+  <si>
+    <t>t / 32nm</t>
   </si>
 </sst>
 </file>
@@ -69,18 +87,18 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -100,39 +118,151 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="hair">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -141,41 +271,21 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -183,67 +293,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,211 +669,402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523FD97C-F56A-4138-AC1D-4D3D8891FEA4}">
-  <dimension ref="B1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>32</v>
+      </c>
+      <c r="E3" s="7">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>32</v>
+      </c>
+      <c r="I3" s="7">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="6">
+        <v>32</v>
+      </c>
+      <c r="N3" s="7">
+        <v>16</v>
+      </c>
+      <c r="O3" s="7">
+        <v>14</v>
+      </c>
+      <c r="P3" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>63295</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <f>D4*(F$3/$D$3)^2</f>
+        <v>12115.05859375</v>
+      </c>
+      <c r="G4" s="12">
+        <f>$D4*(G$3/$D$3)^2</f>
+        <v>1545.2880859375</v>
+      </c>
+      <c r="H4" s="10">
+        <v>12.8</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11">
+        <f>H4*D15</f>
+        <v>3.6141176470588237</v>
+      </c>
+      <c r="K4" s="11">
+        <f>H4*D18</f>
+        <v>2.4237176470588238</v>
+      </c>
+      <c r="L4" s="12">
+        <v>60.1</v>
+      </c>
+      <c r="M4">
+        <f>Q4*H4/L4</f>
+        <v>4.6855241264559071</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11">
+        <f>M4*D15</f>
+        <v>1.3229715180581385</v>
+      </c>
+      <c r="P4" s="11">
+        <f>M4*D18</f>
+        <v>0.88721777429773907</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="D5" s="14">
+        <v>1917472</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
+        <f>D5*(F$3/$D$3)^2</f>
+        <v>367016.125</v>
+      </c>
+      <c r="G5" s="16">
+        <f>$D5*(G$3/$D$3)^2</f>
+        <v>46813.28125</v>
+      </c>
+      <c r="H5" s="14">
+        <v>52</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15">
+        <f>H5*D15</f>
+        <v>14.68235294117647</v>
+      </c>
+      <c r="K5" s="15">
+        <f>H5*D18</f>
+        <v>9.8463529411764696</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15">
+        <f>M5*(O$3/$H$3)^2</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <f>M5*(P$3/$H$3)^2</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15">
+        <v>550000</v>
+      </c>
+      <c r="F6" s="15">
+        <f>E6*(F$3/$E$3)^2</f>
+        <v>421093.75</v>
+      </c>
+      <c r="G6" s="16">
+        <f>$E6*(G$3/$E$3)^2</f>
+        <v>53710.9375</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15">
+        <v>21</v>
+      </c>
+      <c r="J6" s="15">
+        <f>I6*(J$3/$I$3)^2</f>
+        <v>16.078125</v>
+      </c>
+      <c r="K6" s="15">
+        <f>I6*(K$3/$I$3)^2</f>
+        <v>2.05078125</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="19">
+        <v>84485</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
+        <f>D7*(F$3/$D$3)^2</f>
+        <v>16170.95703125</v>
+      </c>
+      <c r="G7" s="21">
+        <f>$D7*(G$3/$D$3)^2</f>
+        <v>2062.6220703125</v>
+      </c>
+      <c r="H7" s="19">
+        <f>L7*H4/L4</f>
+        <v>14.329184692179702</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20">
+        <f>H7*D15</f>
+        <v>4.045887442497798</v>
+      </c>
+      <c r="K7" s="20">
+        <f>H7*D18</f>
+        <v>2.713273266125086</v>
+      </c>
+      <c r="L7" s="21">
+        <v>67.28</v>
+      </c>
+      <c r="M7" s="19">
+        <f>Q7*H7/L7</f>
+        <v>5.9633943427620641</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20">
+        <f>M7*D18</f>
+        <v>1.1291862581971226</v>
+      </c>
+      <c r="P7" s="20">
+        <f>M7*D18</f>
+        <v>1.1291862581971226</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>0.51</v>
+      </c>
+      <c r="D12">
+        <f>C12/C$12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D13">
+        <f>C13/C$12</f>
+        <v>0.38823529411764707</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D13:D18" si="0">C14/C$12</f>
+        <v>0.35098039215686272</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.28235294117647058</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0.122</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.23921568627450979</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.111</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.21764705882352942</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="12">
-        <v>32</v>
-      </c>
-      <c r="E3" s="13">
-        <v>16</v>
-      </c>
-      <c r="F3" s="13">
-        <v>14</v>
-      </c>
-      <c r="G3" s="13">
-        <v>5</v>
-      </c>
-      <c r="H3" s="13">
-        <v>32</v>
-      </c>
-      <c r="I3" s="13">
-        <v>16</v>
-      </c>
-      <c r="J3" s="13">
-        <v>14</v>
-      </c>
-      <c r="K3" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>54288</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <f>D4*(F$3/$D$3)^2</f>
-        <v>10391.0625</v>
-      </c>
-      <c r="G4" s="2">
-        <f>$D4*(G$3/$D$3)^2</f>
-        <v>1325.390625</v>
-      </c>
-      <c r="H4" s="2">
-        <v>34</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
-        <f>H4*(J$3/$H$3)^2</f>
-        <v>6.5078125</v>
-      </c>
-      <c r="K4" s="3">
-        <f>H4*(K$3/$H$3)^2</f>
-        <v>0.830078125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200000</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <f>D5*(F$3/$D$3)^2</f>
-        <v>38281.25</v>
-      </c>
-      <c r="G5" s="5">
-        <f>$D5*(G$3/$D$3)^2</f>
-        <v>4882.8125</v>
-      </c>
-      <c r="H5" s="5">
-        <v>400</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
-        <f>H5*(J$3/$H$3)^2</f>
-        <v>76.5625</v>
-      </c>
-      <c r="K5" s="6">
-        <f>H5*(K$3/$H$3)^2</f>
-        <v>9.765625</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="F6" s="5">
-        <f>E6*(F$3/$E$3)^2</f>
-        <v>765625</v>
-      </c>
-      <c r="G6" s="5">
-        <f>$E6*(G$3/$E$3)^2</f>
-        <v>97656.25</v>
-      </c>
-      <c r="I6" s="5">
-        <v>48</v>
-      </c>
-      <c r="J6" s="5">
-        <f>I6*(J$3/$I$3)^2</f>
-        <v>36.75</v>
-      </c>
-      <c r="K6" s="6">
-        <f>I6*(K$3/$I$3)^2</f>
-        <v>4.6875</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
-        <v>54288</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7">
-        <f>D7*(F$3/$D$3)^2</f>
-        <v>10391.0625</v>
-      </c>
-      <c r="G7" s="7">
-        <f>$D7*(G$3/$D$3)^2</f>
-        <v>1325.390625</v>
-      </c>
-      <c r="H7" s="7">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
-        <f>H7*(J$3/$H$3)^2</f>
-        <v>6.5078125</v>
-      </c>
-      <c r="K7" s="8">
-        <f>H7*(K$3/$H$3)^2</f>
-        <v>0.830078125</v>
+      <c r="C18">
+        <v>9.6570000000000003E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.18935294117647058</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="M2:Q2"/>
     <mergeCell ref="B1:K1"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:L2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>